--- a/CBT_LSW_measurements.xlsx
+++ b/CBT_LSW_measurements.xlsx
@@ -13,6 +13,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Number of Second-Pass" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Number of Second-Pass Fixations" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Duration of Second-Pass Fixations" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Number of visits to each text" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total time spent on text 1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total time spent on text 2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total time spent on each task" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,11 +443,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of First-Pass</t>
@@ -928,6 +927,512 @@
       </c>
       <c r="B49" t="n">
         <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total time spent on each task</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CBT_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>457138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CBT_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298452</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CBT_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>110699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CBT_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>347035</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CBT_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>104856</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CBT_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>230218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CBT_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>148720</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CBT_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>259237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CBT_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>488097</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CBT_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>289092</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CBT_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>246335</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CBT_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>548119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CBT_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>225666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CBT_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>594561</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CBT_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>608577</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CBT_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>375310</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CBT_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>365773</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CBT_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>159392</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CBT_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>333136</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CBT_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>435047</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CBT_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>312794</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CBT_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>462823</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CBT_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>134145</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CBT_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>217844</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>LSW_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>301479</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>LSW_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>335733</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>LSW_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>130336</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>LSW_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>386027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LSW_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>112282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>LSW_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>228632</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>LSW_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>156573</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>LSW_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>224706</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>LSW_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>232401</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>LSW_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>205909</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>LSW_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>212541</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LSW_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>444157</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>LSW_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>269213</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>LSW_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>421269</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>LSW_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>567448</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>LSW_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>225722</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>LSW_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>349484</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>LSW_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>196989</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>LSW_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>324993</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>LSW_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>225524</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>LSW_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>246518</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>LSW_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>465439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>LSW_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>115683</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>LSW_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>162979</v>
       </c>
     </row>
   </sheetData>
@@ -950,11 +1455,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of First-Pass Fixations</t>
@@ -1461,11 +1961,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Duration of First-Pass Fixations</t>
@@ -1972,11 +2467,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of Second-Pass</t>
@@ -2483,11 +2973,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Number of Second-Pass Fixations</t>
@@ -2994,11 +3479,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Participant</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Duration of Second-Pass Fixations</t>
@@ -3483,6 +3963,1524 @@
       </c>
       <c r="B49" t="n">
         <v>8977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Number of visits to each text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CBT_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CBT_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CBT_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CBT_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CBT_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CBT_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CBT_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CBT_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CBT_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CBT_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CBT_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CBT_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CBT_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CBT_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CBT_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CBT_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CBT_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CBT_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CBT_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CBT_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CBT_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CBT_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CBT_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CBT_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>LSW_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>LSW_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>LSW_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>LSW_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LSW_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>LSW_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>LSW_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>LSW_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>LSW_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>LSW_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>LSW_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LSW_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>LSW_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>LSW_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>LSW_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>LSW_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>LSW_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>LSW_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>LSW_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>LSW_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>LSW_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>LSW_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>LSW_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>LSW_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total time spent on text 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CBT_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>275313</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CBT_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>179255</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CBT_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65475</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CBT_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>165050</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CBT_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CBT_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>128762</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CBT_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81463</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CBT_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>140654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CBT_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>254627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CBT_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>173288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CBT_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>142726</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CBT_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>314869</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CBT_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>126882</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CBT_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>335384</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CBT_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>406470</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CBT_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>241127</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CBT_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>193414</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CBT_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>75616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CBT_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>186822</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CBT_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>283603</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CBT_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>151234</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CBT_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>230483</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CBT_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>71111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CBT_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95616</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>LSW_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>163069</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>LSW_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>149696</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>LSW_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>69866</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>LSW_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>194338</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LSW_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>59507</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>LSW_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>115394</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>LSW_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>66619</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>LSW_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>86896</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>LSW_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>128577</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>LSW_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>109479</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>LSW_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>96257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LSW_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>174593</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>LSW_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>123819</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>LSW_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>133107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>LSW_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>233184</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>LSW_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>83403</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>LSW_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>183854</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>LSW_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>90966</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>LSW_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>111826</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>LSW_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>130625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>LSW_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>94339</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>LSW_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>247379</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>LSW_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>58592</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>LSW_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>88193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total time spent on text 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CBT_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>181825</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CBT_10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>119197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CBT_11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CBT_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>181985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CBT_13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>49205</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CBT_14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>101456</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CBT_15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67257</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CBT_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>118583</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CBT_17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>233470</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CBT_18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>115804</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CBT_19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>103609</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CBT_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>233250</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CBT_20</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98784</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CBT_21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>259177</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CBT_22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>202107</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CBT_23</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>134183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CBT_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>172359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CBT_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>83776</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CBT_26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>146314</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CBT_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>151444</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CBT_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>161560</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CBT_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>232340</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CBT_7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>63034</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CBT_8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>122228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>LSW_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>138410</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>LSW_10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>186037</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>LSW_11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>60470</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>LSW_12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>191689</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LSW_13</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>52775</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>LSW_14</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>113238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>LSW_15</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>89954</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>LSW_16</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>137810</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>LSW_17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>103824</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>LSW_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>96430</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>LSW_19</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>116284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LSW_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>269564</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>LSW_20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>145394</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>LSW_21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>288162</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>LSW_22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>334264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>LSW_23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>142319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>LSW_24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>165630</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>LSW_25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>106023</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>LSW_26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>213167</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>LSW_3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>94899</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>LSW_4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>152179</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>LSW_5</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>218060</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>LSW_7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>57091</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>LSW_8</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>74786</v>
       </c>
     </row>
   </sheetData>
